--- a/create_worksheets/excel_template.xlsx
+++ b/create_worksheets/excel_template.xlsx
@@ -440,14 +440,794 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>5883</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7901</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8915</v>
+      </c>
+      <c r="D1" t="n">
+        <v>11224</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="F1" t="n">
+        <v>14276</v>
+      </c>
+      <c r="G1" t="n">
+        <v>18315</v>
+      </c>
+      <c r="H1" t="n">
+        <v>8263</v>
+      </c>
+      <c r="I1" t="n">
+        <v>9198</v>
+      </c>
+      <c r="J1" t="n">
+        <v>12302</v>
+      </c>
+      <c r="K1" t="n">
+        <v>23474</v>
+      </c>
+      <c r="L1" t="n">
+        <v>25570</v>
+      </c>
+      <c r="M1" t="n">
+        <v>26578</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>525</v>
+      </c>
+      <c r="B2" t="n">
+        <v>699</v>
+      </c>
+      <c r="C2" t="n">
+        <v>775</v>
+      </c>
+      <c r="D2" t="n">
+        <v>870</v>
+      </c>
+      <c r="E2" t="n">
+        <v>338</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1141</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1443</v>
+      </c>
+      <c r="H2" t="n">
+        <v>736</v>
+      </c>
+      <c r="I2" t="n">
+        <v>857</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1051</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1930</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2072</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>846</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1136</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1262</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1512</v>
+      </c>
+      <c r="E4" t="n">
+        <v>552</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1970</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2517</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1162</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1487</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1707</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3336</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3535</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19</v>
+      </c>
+      <c r="L5" t="n">
+        <v>19</v>
+      </c>
+      <c r="M5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>733</v>
+      </c>
+      <c r="B6" t="n">
+        <v>986</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1094</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>400</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1708</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2184</v>
+      </c>
+      <c r="H6" t="n">
+        <v>840</v>
+      </c>
+      <c r="I6" t="n">
+        <v>982</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2756</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2944</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>16</v>
+      </c>
+      <c r="M7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>435</v>
+      </c>
+      <c r="B8" t="n">
+        <v>589</v>
+      </c>
+      <c r="C8" t="n">
+        <v>650</v>
+      </c>
+      <c r="D8" t="n">
+        <v>771</v>
+      </c>
+      <c r="E8" t="n">
+        <v>248</v>
+      </c>
+      <c r="F8" t="n">
+        <v>993</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1291</v>
+      </c>
+      <c r="H8" t="n">
+        <v>537</v>
+      </c>
+      <c r="I8" t="n">
+        <v>614</v>
+      </c>
+      <c r="J8" t="n">
+        <v>838</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1621</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1766</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>418</v>
+      </c>
+      <c r="B10" t="n">
+        <v>569</v>
+      </c>
+      <c r="C10" t="n">
+        <v>631</v>
+      </c>
+      <c r="D10" t="n">
+        <v>747</v>
+      </c>
+      <c r="E10" t="n">
+        <v>312</v>
+      </c>
+      <c r="F10" t="n">
+        <v>986</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H10" t="n">
+        <v>471</v>
+      </c>
+      <c r="I10" t="n">
+        <v>512</v>
+      </c>
+      <c r="J10" t="n">
+        <v>665</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1567</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1679</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>174</v>
+      </c>
+      <c r="B12" t="n">
+        <v>232</v>
+      </c>
+      <c r="C12" t="n">
+        <v>255</v>
+      </c>
+      <c r="D12" t="n">
+        <v>296</v>
+      </c>
+      <c r="E12" t="n">
+        <v>91</v>
+      </c>
+      <c r="F12" t="n">
+        <v>380</v>
+      </c>
+      <c r="G12" t="n">
+        <v>487</v>
+      </c>
+      <c r="H12" t="n">
+        <v>233</v>
+      </c>
+      <c r="I12" t="n">
+        <v>271</v>
+      </c>
+      <c r="J12" t="n">
+        <v>347</v>
+      </c>
+      <c r="K12" t="n">
+        <v>636</v>
+      </c>
+      <c r="L12" t="n">
+        <v>687</v>
+      </c>
+      <c r="M12" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>582</v>
+      </c>
+      <c r="B14" t="n">
+        <v>790</v>
+      </c>
+      <c r="C14" t="n">
+        <v>873</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1059</v>
+      </c>
+      <c r="E14" t="n">
+        <v>305</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1353</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1707</v>
+      </c>
+      <c r="H14" t="n">
+        <v>506</v>
+      </c>
+      <c r="I14" t="n">
+        <v>562</v>
+      </c>
+      <c r="J14" t="n">
+        <v>684</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2088</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2199</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11</v>
+      </c>
+      <c r="F15" t="n">
+        <v>13</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L15" t="n">
+        <v>12</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>752</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1173</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1534</v>
+      </c>
+      <c r="E16" t="n">
+        <v>590</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2009</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2528</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1194</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1148</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1669</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3238</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3555</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
+      </c>
+      <c r="E17" t="n">
+        <v>21</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20</v>
+      </c>
+      <c r="K17" t="n">
+        <v>19</v>
+      </c>
+      <c r="L17" t="n">
+        <v>19</v>
+      </c>
+      <c r="M17" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>28</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" t="n">
+        <v>33</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>40</v>
+      </c>
+      <c r="G18" t="n">
+        <v>54</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>59</v>
+      </c>
+      <c r="L18" t="n">
+        <v>62</v>
+      </c>
+      <c r="M18" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -458,14 +1238,3500 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>5883</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7901</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8915</v>
+      </c>
+      <c r="D1" t="n">
+        <v>11224</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="F1" t="n">
+        <v>14276</v>
+      </c>
+      <c r="G1" t="n">
+        <v>18315</v>
+      </c>
+      <c r="H1" t="n">
+        <v>8263</v>
+      </c>
+      <c r="I1" t="n">
+        <v>9198</v>
+      </c>
+      <c r="J1" t="n">
+        <v>12302</v>
+      </c>
+      <c r="K1" t="n">
+        <v>23474</v>
+      </c>
+      <c r="L1" t="n">
+        <v>25570</v>
+      </c>
+      <c r="M1" t="n">
+        <v>26578</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1118</v>
+      </c>
+      <c r="F4" t="n">
+        <v>370</v>
+      </c>
+      <c r="G4" t="n">
+        <v>476</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>503</v>
+      </c>
+      <c r="L4" t="n">
+        <v>516</v>
+      </c>
+      <c r="M4" t="n">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>296</v>
+      </c>
+      <c r="B6" t="n">
+        <v>381</v>
+      </c>
+      <c r="C6" t="n">
+        <v>410</v>
+      </c>
+      <c r="D6" t="n">
+        <v>396</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>468</v>
+      </c>
+      <c r="G6" t="n">
+        <v>602</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>636</v>
+      </c>
+      <c r="L6" t="n">
+        <v>652</v>
+      </c>
+      <c r="M6" t="n">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>555</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>833</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>401</v>
+      </c>
+      <c r="M8" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>46</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>110</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="n">
+        <v>49</v>
+      </c>
+      <c r="L14" t="n">
+        <v>50</v>
+      </c>
+      <c r="M14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>837</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1329</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1257</v>
+      </c>
+      <c r="K18" t="n">
+        <v>589</v>
+      </c>
+      <c r="L18" t="n">
+        <v>604</v>
+      </c>
+      <c r="M18" t="n">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14</v>
+      </c>
+      <c r="J19" t="n">
+        <v>10</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>192</v>
+      </c>
+      <c r="C22" t="n">
+        <v>207</v>
+      </c>
+      <c r="D22" t="n">
+        <v>199</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>236</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>455</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>320</v>
+      </c>
+      <c r="L22" t="n">
+        <v>328</v>
+      </c>
+      <c r="M22" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>69</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>166</v>
+      </c>
+      <c r="J24" t="n">
+        <v>157</v>
+      </c>
+      <c r="K24" t="n">
+        <v>73</v>
+      </c>
+      <c r="L24" t="n">
+        <v>75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>396</v>
+      </c>
+      <c r="D26" t="n">
+        <v>382</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>451</v>
+      </c>
+      <c r="G26" t="n">
+        <v>581</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>613</v>
+      </c>
+      <c r="L26" t="n">
+        <v>629</v>
+      </c>
+      <c r="M26" t="n">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1677</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1983</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2550</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2694</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2762</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14</v>
+      </c>
+      <c r="G29" t="n">
+        <v>14</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>12</v>
+      </c>
+      <c r="L29" t="n">
+        <v>11</v>
+      </c>
+      <c r="M29" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>685</v>
+      </c>
+      <c r="F30" t="n">
+        <v>227</v>
+      </c>
+      <c r="G30" t="n">
+        <v>292</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>308</v>
+      </c>
+      <c r="L30" t="n">
+        <v>316</v>
+      </c>
+      <c r="M30" t="n">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>22</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1721</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2209</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2297</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2715</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3493</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3689</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3783</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n">
+        <v>28</v>
+      </c>
+      <c r="C33" t="n">
+        <v>27</v>
+      </c>
+      <c r="D33" t="n">
+        <v>21</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>19</v>
+      </c>
+      <c r="G33" t="n">
+        <v>19</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>16</v>
+      </c>
+      <c r="L33" t="n">
+        <v>15</v>
+      </c>
+      <c r="M33" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>325</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>488</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>778</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1236</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1169</v>
+      </c>
+      <c r="K36" t="n">
+        <v>548</v>
+      </c>
+      <c r="L36" t="n">
+        <v>562</v>
+      </c>
+      <c r="M36" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>13</v>
+      </c>
+      <c r="J37" t="n">
+        <v>9</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>155</v>
+      </c>
+      <c r="C38" t="n">
+        <v>167</v>
+      </c>
+      <c r="D38" t="n">
+        <v>161</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>191</v>
+      </c>
+      <c r="G38" t="n">
+        <v>245</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>259</v>
+      </c>
+      <c r="L38" t="n">
+        <v>266</v>
+      </c>
+      <c r="M38" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2077</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2239</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2160</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2552</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3283</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3468</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3556</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>28</v>
+      </c>
+      <c r="B43" t="n">
+        <v>26</v>
+      </c>
+      <c r="C43" t="n">
+        <v>25</v>
+      </c>
+      <c r="D43" t="n">
+        <v>19</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>18</v>
+      </c>
+      <c r="G43" t="n">
+        <v>18</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15</v>
+      </c>
+      <c r="L43" t="n">
+        <v>14</v>
+      </c>
+      <c r="M43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>148</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>354</v>
+      </c>
+      <c r="J46" t="n">
+        <v>334</v>
+      </c>
+      <c r="K46" t="n">
+        <v>157</v>
+      </c>
+      <c r="L46" t="n">
+        <v>161</v>
+      </c>
+      <c r="M46" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>16</v>
+      </c>
+      <c r="B48" t="n">
+        <v>21</v>
+      </c>
+      <c r="C48" t="n">
+        <v>22</v>
+      </c>
+      <c r="D48" t="n">
+        <v>21</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>25</v>
+      </c>
+      <c r="G48" t="n">
+        <v>33</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>35</v>
+      </c>
+      <c r="L48" t="n">
+        <v>35</v>
+      </c>
+      <c r="M48" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>100</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>239</v>
+      </c>
+      <c r="J50" t="n">
+        <v>226</v>
+      </c>
+      <c r="K50" t="n">
+        <v>106</v>
+      </c>
+      <c r="L50" t="n">
+        <v>108</v>
+      </c>
+      <c r="M50" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>28</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>66</v>
+      </c>
+      <c r="J56" t="n">
+        <v>62</v>
+      </c>
+      <c r="K56" t="n">
+        <v>29</v>
+      </c>
+      <c r="L56" t="n">
+        <v>30</v>
+      </c>
+      <c r="M56" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>450</v>
+      </c>
+      <c r="B58" t="n">
+        <v>578</v>
+      </c>
+      <c r="C58" t="n">
+        <v>624</v>
+      </c>
+      <c r="D58" t="n">
+        <v>601</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>711</v>
+      </c>
+      <c r="G58" t="n">
+        <v>914</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>966</v>
+      </c>
+      <c r="L58" t="n">
+        <v>990</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2996</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4758</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4499</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2109</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2163</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>36</v>
+      </c>
+      <c r="I63" t="n">
+        <v>52</v>
+      </c>
+      <c r="J63" t="n">
+        <v>37</v>
+      </c>
+      <c r="K63" t="n">
+        <v>9</v>
+      </c>
+      <c r="L63" t="n">
+        <v>9</v>
+      </c>
+      <c r="M63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>368</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>435</v>
+      </c>
+      <c r="G64" t="n">
+        <v>560</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>591</v>
+      </c>
+      <c r="L64" t="n">
+        <v>606</v>
+      </c>
+      <c r="M64" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1521</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2283</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1098</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>18</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>19</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1248</v>
+      </c>
+      <c r="F70" t="n">
+        <v>413</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>797</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>561</v>
+      </c>
+      <c r="L70" t="n">
+        <v>576</v>
+      </c>
+      <c r="M70" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>41</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>111</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>265</v>
+      </c>
+      <c r="J72" t="n">
+        <v>251</v>
+      </c>
+      <c r="K72" t="n">
+        <v>118</v>
+      </c>
+      <c r="L72" t="n">
+        <v>121</v>
+      </c>
+      <c r="M72" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>284</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>676</v>
+      </c>
+      <c r="J74" t="n">
+        <v>640</v>
+      </c>
+      <c r="K74" t="n">
+        <v>300</v>
+      </c>
+      <c r="L74" t="n">
+        <v>307</v>
+      </c>
+      <c r="M74" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1782</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2288</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2467</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2380</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2813</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3618</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>3821</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3919</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>30</v>
+      </c>
+      <c r="B83" t="n">
+        <v>29</v>
+      </c>
+      <c r="C83" t="n">
+        <v>28</v>
+      </c>
+      <c r="D83" t="n">
+        <v>21</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20</v>
+      </c>
+      <c r="G83" t="n">
+        <v>20</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>16</v>
+      </c>
+      <c r="L83" t="n">
+        <v>15</v>
+      </c>
+      <c r="M83" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>581</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>686</v>
+      </c>
+      <c r="G84" t="n">
+        <v>883</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>933</v>
+      </c>
+      <c r="L84" t="n">
+        <v>956</v>
+      </c>
+      <c r="M84" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>4</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -476,14 +4742,630 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>5883</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7901</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8915</v>
+      </c>
+      <c r="D1" t="n">
+        <v>11224</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="F1" t="n">
+        <v>14276</v>
+      </c>
+      <c r="G1" t="n">
+        <v>18315</v>
+      </c>
+      <c r="H1" t="n">
+        <v>8263</v>
+      </c>
+      <c r="I1" t="n">
+        <v>9198</v>
+      </c>
+      <c r="J1" t="n">
+        <v>12302</v>
+      </c>
+      <c r="K1" t="n">
+        <v>23474</v>
+      </c>
+      <c r="L1" t="n">
+        <v>25570</v>
+      </c>
+      <c r="M1" t="n">
+        <v>26578</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>360</v>
+      </c>
+      <c r="B2" t="n">
+        <v>505</v>
+      </c>
+      <c r="C2" t="n">
+        <v>560</v>
+      </c>
+      <c r="D2" t="n">
+        <v>777</v>
+      </c>
+      <c r="E2" t="n">
+        <v>311</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1021</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1292</v>
+      </c>
+      <c r="H2" t="n">
+        <v>340</v>
+      </c>
+      <c r="I2" t="n">
+        <v>382</v>
+      </c>
+      <c r="J2" t="n">
+        <v>463</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1633</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>740</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1425</v>
+      </c>
+      <c r="E4" t="n">
+        <v>601</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1883</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2341</v>
+      </c>
+      <c r="H4" t="n">
+        <v>740</v>
+      </c>
+      <c r="I4" t="n">
+        <v>764</v>
+      </c>
+      <c r="J4" t="n">
+        <v>928</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2897</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3047</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1375</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2027</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2367</v>
+      </c>
+      <c r="E6" t="n">
+        <v>780</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3055</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3837</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1421</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1552</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1924</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4839</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5147</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" t="n">
+        <v>26</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>17</v>
+      </c>
+      <c r="J7" t="n">
+        <v>16</v>
+      </c>
+      <c r="K7" t="n">
+        <v>21</v>
+      </c>
+      <c r="L7" t="n">
+        <v>20</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>365</v>
+      </c>
+      <c r="B8" t="n">
+        <v>489</v>
+      </c>
+      <c r="C8" t="n">
+        <v>535</v>
+      </c>
+      <c r="D8" t="n">
+        <v>592</v>
+      </c>
+      <c r="E8" t="n">
+        <v>297</v>
+      </c>
+      <c r="F8" t="n">
+        <v>798</v>
+      </c>
+      <c r="G8" t="n">
+        <v>996</v>
+      </c>
+      <c r="H8" t="n">
+        <v>493</v>
+      </c>
+      <c r="I8" t="n">
+        <v>484</v>
+      </c>
+      <c r="J8" t="n">
+        <v>673</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1299</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1419</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>649</v>
+      </c>
+      <c r="B10" t="n">
+        <v>870</v>
+      </c>
+      <c r="C10" t="n">
+        <v>964</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1176</v>
+      </c>
+      <c r="E10" t="n">
+        <v>466</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1544</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1973</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1039</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1106</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1531</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2588</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2833</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>11</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2382</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3150</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3667</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4871</v>
+      </c>
+      <c r="E12" t="n">
+        <v>596</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5954</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7849</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4212</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4892</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6754</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10258</v>
+      </c>
+      <c r="L12" t="n">
+        <v>11448</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11889</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41</v>
+      </c>
+      <c r="B13" t="n">
+        <v>40</v>
+      </c>
+      <c r="C13" t="n">
+        <v>41</v>
+      </c>
+      <c r="D13" t="n">
+        <v>43</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19</v>
+      </c>
+      <c r="F13" t="n">
+        <v>42</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43</v>
+      </c>
+      <c r="H13" t="n">
+        <v>51</v>
+      </c>
+      <c r="I13" t="n">
+        <v>53</v>
+      </c>
+      <c r="J13" t="n">
+        <v>55</v>
+      </c>
+      <c r="K13" t="n">
+        <v>44</v>
+      </c>
+      <c r="L13" t="n">
+        <v>45</v>
+      </c>
+      <c r="M13" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18</v>
+      </c>
+      <c r="D14" t="n">
+        <v>17</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27</v>
+      </c>
+      <c r="H14" t="n">
+        <v>17</v>
+      </c>
+      <c r="I14" t="n">
+        <v>18</v>
+      </c>
+      <c r="J14" t="n">
+        <v>28</v>
+      </c>
+      <c r="K14" t="n">
+        <v>36</v>
+      </c>
+      <c r="L14" t="n">
+        <v>42</v>
+      </c>
+      <c r="M14" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -494,14 +5376,466 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>5883</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7901</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8915</v>
+      </c>
+      <c r="D1" t="n">
+        <v>11224</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="F1" t="n">
+        <v>14276</v>
+      </c>
+      <c r="G1" t="n">
+        <v>18315</v>
+      </c>
+      <c r="H1" t="n">
+        <v>8263</v>
+      </c>
+      <c r="I1" t="n">
+        <v>9198</v>
+      </c>
+      <c r="J1" t="n">
+        <v>12302</v>
+      </c>
+      <c r="K1" t="n">
+        <v>23474</v>
+      </c>
+      <c r="L1" t="n">
+        <v>25570</v>
+      </c>
+      <c r="M1" t="n">
+        <v>26578</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>360</v>
+      </c>
+      <c r="B2" t="n">
+        <v>505</v>
+      </c>
+      <c r="C2" t="n">
+        <v>560</v>
+      </c>
+      <c r="D2" t="n">
+        <v>777</v>
+      </c>
+      <c r="E2" t="n">
+        <v>311</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1021</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1292</v>
+      </c>
+      <c r="H2" t="n">
+        <v>340</v>
+      </c>
+      <c r="I2" t="n">
+        <v>382</v>
+      </c>
+      <c r="J2" t="n">
+        <v>463</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1633</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2114</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2870</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3171</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3791</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1381</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4938</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6177</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2161</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2316</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2852</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7736</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8195</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8499</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G5" t="n">
+        <v>34</v>
+      </c>
+      <c r="H5" t="n">
+        <v>26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>23</v>
+      </c>
+      <c r="K5" t="n">
+        <v>33</v>
+      </c>
+      <c r="L5" t="n">
+        <v>32</v>
+      </c>
+      <c r="M5" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1359</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1768</v>
+      </c>
+      <c r="E6" t="n">
+        <v>763</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2342</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2969</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1532</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1590</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2204</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3887</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4252</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
+      <c r="E7" t="n">
+        <v>25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18</v>
+      </c>
+      <c r="K7" t="n">
+        <v>16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2382</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3150</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3667</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4871</v>
+      </c>
+      <c r="E8" t="n">
+        <v>596</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5954</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7849</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4212</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4892</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6754</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10258</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11448</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11889</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41</v>
+      </c>
+      <c r="B9" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" t="n">
+        <v>41</v>
+      </c>
+      <c r="D9" t="n">
+        <v>43</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>42</v>
+      </c>
+      <c r="G9" t="n">
+        <v>43</v>
+      </c>
+      <c r="H9" t="n">
+        <v>51</v>
+      </c>
+      <c r="I9" t="n">
+        <v>53</v>
+      </c>
+      <c r="J9" t="n">
+        <v>55</v>
+      </c>
+      <c r="K9" t="n">
+        <v>44</v>
+      </c>
+      <c r="L9" t="n">
+        <v>45</v>
+      </c>
+      <c r="M9" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21</v>
+      </c>
+      <c r="G10" t="n">
+        <v>27</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>28</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36</v>
+      </c>
+      <c r="L10" t="n">
+        <v>42</v>
+      </c>
+      <c r="M10" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -512,14 +5846,630 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>5883</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7901</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8915</v>
+      </c>
+      <c r="D1" t="n">
+        <v>11224</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="F1" t="n">
+        <v>14276</v>
+      </c>
+      <c r="G1" t="n">
+        <v>18315</v>
+      </c>
+      <c r="H1" t="n">
+        <v>8263</v>
+      </c>
+      <c r="I1" t="n">
+        <v>9198</v>
+      </c>
+      <c r="J1" t="n">
+        <v>12302</v>
+      </c>
+      <c r="K1" t="n">
+        <v>23474</v>
+      </c>
+      <c r="L1" t="n">
+        <v>25570</v>
+      </c>
+      <c r="M1" t="n">
+        <v>26578</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>923</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1263</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1395</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1647</v>
+      </c>
+      <c r="E2" t="n">
+        <v>687</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2174</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2695</v>
+      </c>
+      <c r="H2" t="n">
+        <v>960</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1035</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1214</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3413</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3587</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>816</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1117</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1238</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1490</v>
+      </c>
+      <c r="E4" t="n">
+        <v>650</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1976</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2509</v>
+      </c>
+      <c r="H4" t="n">
+        <v>981</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1184</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1401</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3210</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3391</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13</v>
+      </c>
+      <c r="M5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1425</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1910</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2115</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2467</v>
+      </c>
+      <c r="E6" t="n">
+        <v>844</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3196</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4076</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1823</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2158</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2661</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5298</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5679</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>24</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24</v>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>22</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23</v>
+      </c>
+      <c r="J7" t="n">
+        <v>22</v>
+      </c>
+      <c r="K7" t="n">
+        <v>23</v>
+      </c>
+      <c r="L7" t="n">
+        <v>22</v>
+      </c>
+      <c r="M7" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>542</v>
+      </c>
+      <c r="B8" t="n">
+        <v>719</v>
+      </c>
+      <c r="C8" t="n">
+        <v>794</v>
+      </c>
+      <c r="D8" t="n">
+        <v>904</v>
+      </c>
+      <c r="E8" t="n">
+        <v>278</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1160</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1480</v>
+      </c>
+      <c r="H8" t="n">
+        <v>722</v>
+      </c>
+      <c r="I8" t="n">
+        <v>809</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1058</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1934</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>586</v>
+      </c>
+      <c r="B10" t="n">
+        <v>785</v>
+      </c>
+      <c r="C10" t="n">
+        <v>891</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1168</v>
+      </c>
+      <c r="E10" t="n">
+        <v>327</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1489</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1941</v>
+      </c>
+      <c r="H10" t="n">
+        <v>995</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1086</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1553</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2504</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2774</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>11</v>
+      </c>
+      <c r="M11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2074</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2446</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3513</v>
+      </c>
+      <c r="E12" t="n">
+        <v>263</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4240</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5561</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2765</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2911</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4396</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7051</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7966</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>31</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>33</v>
+      </c>
+      <c r="I13" t="n">
+        <v>32</v>
+      </c>
+      <c r="J13" t="n">
+        <v>36</v>
+      </c>
+      <c r="K13" t="n">
+        <v>30</v>
+      </c>
+      <c r="L13" t="n">
+        <v>31</v>
+      </c>
+      <c r="M13" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n">
+        <v>36</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>52</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>20</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64</v>
+      </c>
+      <c r="L14" t="n">
+        <v>68</v>
+      </c>
+      <c r="M14" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -530,14 +6480,466 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>5883</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7901</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8915</v>
+      </c>
+      <c r="D1" t="n">
+        <v>11224</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="F1" t="n">
+        <v>14276</v>
+      </c>
+      <c r="G1" t="n">
+        <v>18315</v>
+      </c>
+      <c r="H1" t="n">
+        <v>8263</v>
+      </c>
+      <c r="I1" t="n">
+        <v>9198</v>
+      </c>
+      <c r="J1" t="n">
+        <v>12302</v>
+      </c>
+      <c r="K1" t="n">
+        <v>23474</v>
+      </c>
+      <c r="L1" t="n">
+        <v>25570</v>
+      </c>
+      <c r="M1" t="n">
+        <v>26578</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>923</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1263</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1395</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1647</v>
+      </c>
+      <c r="E2" t="n">
+        <v>687</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2174</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2695</v>
+      </c>
+      <c r="H2" t="n">
+        <v>960</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1035</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1214</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3413</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3587</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2241</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3027</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3353</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3957</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1494</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5172</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6586</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2805</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3341</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4062</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8508</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9070</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9433</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E5" t="n">
+        <v>49</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36</v>
+      </c>
+      <c r="H5" t="n">
+        <v>34</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36</v>
+      </c>
+      <c r="J5" t="n">
+        <v>33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36</v>
+      </c>
+      <c r="L5" t="n">
+        <v>36</v>
+      </c>
+      <c r="M5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1504</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1686</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2072</v>
+      </c>
+      <c r="E6" t="n">
+        <v>604</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2649</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3421</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1718</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1895</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2611</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4439</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4878</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5094</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21</v>
+      </c>
+      <c r="I7" t="n">
+        <v>21</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21</v>
+      </c>
+      <c r="K7" t="n">
+        <v>19</v>
+      </c>
+      <c r="L7" t="n">
+        <v>19</v>
+      </c>
+      <c r="M7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2074</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2446</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3513</v>
+      </c>
+      <c r="E8" t="n">
+        <v>263</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4240</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5561</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2765</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2911</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4396</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7051</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7966</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="n">
+        <v>26</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30</v>
+      </c>
+      <c r="H9" t="n">
+        <v>33</v>
+      </c>
+      <c r="I9" t="n">
+        <v>32</v>
+      </c>
+      <c r="J9" t="n">
+        <v>36</v>
+      </c>
+      <c r="K9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L9" t="n">
+        <v>31</v>
+      </c>
+      <c r="M9" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>25</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>42</v>
+      </c>
+      <c r="G10" t="n">
+        <v>52</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>20</v>
+      </c>
+      <c r="K10" t="n">
+        <v>64</v>
+      </c>
+      <c r="L10" t="n">
+        <v>68</v>
+      </c>
+      <c r="M10" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -548,14 +6950,794 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>5883</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7901</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8915</v>
+      </c>
+      <c r="D1" t="n">
+        <v>11224</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="F1" t="n">
+        <v>14276</v>
+      </c>
+      <c r="G1" t="n">
+        <v>18315</v>
+      </c>
+      <c r="H1" t="n">
+        <v>8263</v>
+      </c>
+      <c r="I1" t="n">
+        <v>9198</v>
+      </c>
+      <c r="J1" t="n">
+        <v>12302</v>
+      </c>
+      <c r="K1" t="n">
+        <v>23474</v>
+      </c>
+      <c r="L1" t="n">
+        <v>25570</v>
+      </c>
+      <c r="M1" t="n">
+        <v>26578</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>685</v>
+      </c>
+      <c r="B2" t="n">
+        <v>915</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1010</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1095</v>
+      </c>
+      <c r="E2" t="n">
+        <v>396</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1425</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1787</v>
+      </c>
+      <c r="H2" t="n">
+        <v>757</v>
+      </c>
+      <c r="I2" t="n">
+        <v>833</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1032</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2305</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2460</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13</v>
+      </c>
+      <c r="M3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>788</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1061</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1179</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1393</v>
+      </c>
+      <c r="E4" t="n">
+        <v>507</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1814</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2300</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1052</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1280</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1505</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3032</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3222</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17</v>
+      </c>
+      <c r="M5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>575</v>
+      </c>
+      <c r="B6" t="n">
+        <v>782</v>
+      </c>
+      <c r="C6" t="n">
+        <v>867</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1054</v>
+      </c>
+      <c r="E6" t="n">
+        <v>408</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1381</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1734</v>
+      </c>
+      <c r="H6" t="n">
+        <v>804</v>
+      </c>
+      <c r="I6" t="n">
+        <v>876</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1112</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2264</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2427</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>304</v>
+      </c>
+      <c r="B8" t="n">
+        <v>418</v>
+      </c>
+      <c r="C8" t="n">
+        <v>465</v>
+      </c>
+      <c r="D8" t="n">
+        <v>599</v>
+      </c>
+      <c r="E8" t="n">
+        <v>303</v>
+      </c>
+      <c r="F8" t="n">
+        <v>808</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1026</v>
+      </c>
+      <c r="H8" t="n">
+        <v>473</v>
+      </c>
+      <c r="I8" t="n">
+        <v>479</v>
+      </c>
+      <c r="J8" t="n">
+        <v>680</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1310</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1436</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>294</v>
+      </c>
+      <c r="B10" t="n">
+        <v>402</v>
+      </c>
+      <c r="C10" t="n">
+        <v>447</v>
+      </c>
+      <c r="D10" t="n">
+        <v>544</v>
+      </c>
+      <c r="E10" t="n">
+        <v>206</v>
+      </c>
+      <c r="F10" t="n">
+        <v>711</v>
+      </c>
+      <c r="G10" t="n">
+        <v>926</v>
+      </c>
+      <c r="H10" t="n">
+        <v>408</v>
+      </c>
+      <c r="I10" t="n">
+        <v>462</v>
+      </c>
+      <c r="J10" t="n">
+        <v>639</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1170</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1283</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>106</v>
+      </c>
+      <c r="B12" t="n">
+        <v>141</v>
+      </c>
+      <c r="C12" t="n">
+        <v>156</v>
+      </c>
+      <c r="D12" t="n">
+        <v>182</v>
+      </c>
+      <c r="E12" t="n">
+        <v>65</v>
+      </c>
+      <c r="F12" t="n">
+        <v>237</v>
+      </c>
+      <c r="G12" t="n">
+        <v>311</v>
+      </c>
+      <c r="H12" t="n">
+        <v>183</v>
+      </c>
+      <c r="I12" t="n">
+        <v>195</v>
+      </c>
+      <c r="J12" t="n">
+        <v>290</v>
+      </c>
+      <c r="K12" t="n">
+        <v>408</v>
+      </c>
+      <c r="L12" t="n">
+        <v>460</v>
+      </c>
+      <c r="M12" t="n">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>230</v>
+      </c>
+      <c r="B14" t="n">
+        <v>312</v>
+      </c>
+      <c r="C14" t="n">
+        <v>350</v>
+      </c>
+      <c r="D14" t="n">
+        <v>439</v>
+      </c>
+      <c r="E14" t="n">
+        <v>127</v>
+      </c>
+      <c r="F14" t="n">
+        <v>561</v>
+      </c>
+      <c r="G14" t="n">
+        <v>740</v>
+      </c>
+      <c r="H14" t="n">
+        <v>298</v>
+      </c>
+      <c r="I14" t="n">
+        <v>390</v>
+      </c>
+      <c r="J14" t="n">
+        <v>489</v>
+      </c>
+      <c r="K14" t="n">
+        <v>935</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1005</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1502</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2267</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2845</v>
+      </c>
+      <c r="E16" t="n">
+        <v>826</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3636</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4628</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1704</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1918</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2448</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5791</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6191</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6430</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33</v>
+      </c>
+      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+      <c r="C17" t="n">
+        <v>34</v>
+      </c>
+      <c r="D17" t="n">
+        <v>35</v>
+      </c>
+      <c r="E17" t="n">
+        <v>29</v>
+      </c>
+      <c r="F17" t="n">
+        <v>34</v>
+      </c>
+      <c r="G17" t="n">
+        <v>34</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30</v>
+      </c>
+      <c r="J17" t="n">
+        <v>30</v>
+      </c>
+      <c r="K17" t="n">
+        <v>34</v>
+      </c>
+      <c r="L17" t="n">
+        <v>34</v>
+      </c>
+      <c r="M17" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14</v>
+      </c>
+      <c r="L18" t="n">
+        <v>15</v>
+      </c>
+      <c r="M18" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -566,14 +7748,384 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>5883</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7901</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8915</v>
+      </c>
+      <c r="D1" t="n">
+        <v>11224</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="F1" t="n">
+        <v>14276</v>
+      </c>
+      <c r="G1" t="n">
+        <v>18315</v>
+      </c>
+      <c r="H1" t="n">
+        <v>8263</v>
+      </c>
+      <c r="I1" t="n">
+        <v>9198</v>
+      </c>
+      <c r="J1" t="n">
+        <v>12302</v>
+      </c>
+      <c r="K1" t="n">
+        <v>23474</v>
+      </c>
+      <c r="L1" t="n">
+        <v>25570</v>
+      </c>
+      <c r="M1" t="n">
+        <v>26578</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2047</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2758</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3055</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3542</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1311</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4620</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5821</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2613</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2989</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3650</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7602</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8109</v>
+      </c>
+      <c r="M2" t="n">
+        <v>8437</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B3" t="n">
+        <v>46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43</v>
+      </c>
+      <c r="E3" t="n">
+        <v>46</v>
+      </c>
+      <c r="F3" t="n">
+        <v>44</v>
+      </c>
+      <c r="G3" t="n">
+        <v>43</v>
+      </c>
+      <c r="H3" t="n">
+        <v>46</v>
+      </c>
+      <c r="I3" t="n">
+        <v>46</v>
+      </c>
+      <c r="J3" t="n">
+        <v>44</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44</v>
+      </c>
+      <c r="L3" t="n">
+        <v>44</v>
+      </c>
+      <c r="M3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>934</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1273</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1417</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1764</v>
+      </c>
+      <c r="E4" t="n">
+        <v>701</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2316</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3003</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1362</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1525</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2098</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3824</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4184</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" t="n">
+        <v>21</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22</v>
+      </c>
+      <c r="H5" t="n">
+        <v>24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22</v>
+      </c>
+      <c r="L5" t="n">
+        <v>23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1502</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2267</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2845</v>
+      </c>
+      <c r="E6" t="n">
+        <v>826</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3636</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4628</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1704</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1918</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2448</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5791</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6191</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6430</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" t="n">
+        <v>33</v>
+      </c>
+      <c r="C7" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34</v>
+      </c>
+      <c r="G7" t="n">
+        <v>35</v>
+      </c>
+      <c r="H7" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
+        <v>30</v>
+      </c>
+      <c r="K7" t="n">
+        <v>34</v>
+      </c>
+      <c r="L7" t="n">
+        <v>33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15</v>
+      </c>
+      <c r="M8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -584,14 +8136,958 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>5883</v>
+      </c>
+      <c r="B1" t="n">
+        <v>7901</v>
+      </c>
+      <c r="C1" t="n">
+        <v>8915</v>
+      </c>
+      <c r="D1" t="n">
+        <v>11224</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3052</v>
+      </c>
+      <c r="F1" t="n">
+        <v>14276</v>
+      </c>
+      <c r="G1" t="n">
+        <v>18315</v>
+      </c>
+      <c r="H1" t="n">
+        <v>8263</v>
+      </c>
+      <c r="I1" t="n">
+        <v>9198</v>
+      </c>
+      <c r="J1" t="n">
+        <v>12302</v>
+      </c>
+      <c r="K1" t="n">
+        <v>23474</v>
+      </c>
+      <c r="L1" t="n">
+        <v>25570</v>
+      </c>
+      <c r="M1" t="n">
+        <v>26578</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>750</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E2" t="n">
+        <v>392</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1683</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2122</v>
+      </c>
+      <c r="H2" t="n">
+        <v>906</v>
+      </c>
+      <c r="I2" t="n">
+        <v>900</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1265</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2686</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2923</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1375</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1862</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2078</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2493</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1056</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3296</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4107</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1985</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2249</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2682</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5475</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5828</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B5" t="n">
+        <v>31</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37</v>
+      </c>
+      <c r="F5" t="n">
+        <v>31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" t="n">
+        <v>35</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>32</v>
+      </c>
+      <c r="L5" t="n">
+        <v>32</v>
+      </c>
+      <c r="M5" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>728</v>
+      </c>
+      <c r="B6" t="n">
+        <v>984</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1086</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1359</v>
+      </c>
+      <c r="E6" t="n">
+        <v>530</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1782</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2273</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1073</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1208</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1569</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2956</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3197</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>17</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" t="n">
+        <v>19</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17</v>
+      </c>
+      <c r="L7" t="n">
+        <v>17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>314</v>
+      </c>
+      <c r="B8" t="n">
+        <v>424</v>
+      </c>
+      <c r="C8" t="n">
+        <v>469</v>
+      </c>
+      <c r="D8" t="n">
+        <v>546</v>
+      </c>
+      <c r="E8" t="n">
+        <v>192</v>
+      </c>
+      <c r="F8" t="n">
+        <v>708</v>
+      </c>
+      <c r="G8" t="n">
+        <v>917</v>
+      </c>
+      <c r="H8" t="n">
+        <v>445</v>
+      </c>
+      <c r="I8" t="n">
+        <v>508</v>
+      </c>
+      <c r="J8" t="n">
+        <v>682</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1188</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1300</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>316</v>
+      </c>
+      <c r="B10" t="n">
+        <v>424</v>
+      </c>
+      <c r="C10" t="n">
+        <v>466</v>
+      </c>
+      <c r="D10" t="n">
+        <v>545</v>
+      </c>
+      <c r="E10" t="n">
+        <v>160</v>
+      </c>
+      <c r="F10" t="n">
+        <v>697</v>
+      </c>
+      <c r="G10" t="n">
+        <v>932</v>
+      </c>
+      <c r="H10" t="n">
+        <v>391</v>
+      </c>
+      <c r="I10" t="n">
+        <v>538</v>
+      </c>
+      <c r="J10" t="n">
+        <v>668</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1185</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1276</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>993</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1333</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1485</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1879</v>
+      </c>
+      <c r="E12" t="n">
+        <v>501</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2386</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3074</v>
+      </c>
+      <c r="H12" t="n">
+        <v>861</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1012</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1303</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3691</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3920</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>22</v>
+      </c>
+      <c r="D13" t="n">
+        <v>23</v>
+      </c>
+      <c r="E13" t="n">
+        <v>18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G13" t="n">
+        <v>23</v>
+      </c>
+      <c r="H13" t="n">
+        <v>15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>21</v>
+      </c>
+      <c r="L13" t="n">
+        <v>21</v>
+      </c>
+      <c r="M13" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>27</v>
+      </c>
+      <c r="G14" t="n">
+        <v>37</v>
+      </c>
+      <c r="H14" t="n">
+        <v>23</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>40</v>
+      </c>
+      <c r="K14" t="n">
+        <v>49</v>
+      </c>
+      <c r="L14" t="n">
+        <v>56</v>
+      </c>
+      <c r="M14" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>993</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1333</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1485</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1879</v>
+      </c>
+      <c r="E16" t="n">
+        <v>501</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2386</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3074</v>
+      </c>
+      <c r="H16" t="n">
+        <v>861</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1012</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1303</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3691</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3920</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n">
+        <v>22</v>
+      </c>
+      <c r="D17" t="n">
+        <v>23</v>
+      </c>
+      <c r="E17" t="n">
+        <v>18</v>
+      </c>
+      <c r="F17" t="n">
+        <v>22</v>
+      </c>
+      <c r="G17" t="n">
+        <v>23</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>16</v>
+      </c>
+      <c r="K17" t="n">
+        <v>21</v>
+      </c>
+      <c r="L17" t="n">
+        <v>21</v>
+      </c>
+      <c r="M17" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>750</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E18" t="n">
+        <v>392</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1683</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2122</v>
+      </c>
+      <c r="H18" t="n">
+        <v>906</v>
+      </c>
+      <c r="I18" t="n">
+        <v>900</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1265</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2686</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2923</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16</v>
+      </c>
+      <c r="G19" t="n">
+        <v>16</v>
+      </c>
+      <c r="H19" t="n">
+        <v>16</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14</v>
+      </c>
+      <c r="J19" t="n">
+        <v>15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16</v>
+      </c>
+      <c r="L19" t="n">
+        <v>16</v>
+      </c>
+      <c r="M19" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2103</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2846</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3164</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3852</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1587</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5078</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6380</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3058</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3457</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4250</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8432</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9026</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9391</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>47</v>
+      </c>
+      <c r="B21" t="n">
+        <v>47</v>
+      </c>
+      <c r="C21" t="n">
+        <v>47</v>
+      </c>
+      <c r="D21" t="n">
+        <v>47</v>
+      </c>
+      <c r="E21" t="n">
+        <v>56</v>
+      </c>
+      <c r="F21" t="n">
+        <v>48</v>
+      </c>
+      <c r="G21" t="n">
+        <v>47</v>
+      </c>
+      <c r="H21" t="n">
+        <v>54</v>
+      </c>
+      <c r="I21" t="n">
+        <v>54</v>
+      </c>
+      <c r="J21" t="n">
+        <v>52</v>
+      </c>
+      <c r="K21" t="n">
+        <v>49</v>
+      </c>
+      <c r="L21" t="n">
+        <v>49</v>
+      </c>
+      <c r="M21" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>630</v>
+      </c>
+      <c r="B22" t="n">
+        <v>847</v>
+      </c>
+      <c r="C22" t="n">
+        <v>935</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1090</v>
+      </c>
+      <c r="E22" t="n">
+        <v>352</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1405</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1849</v>
+      </c>
+      <c r="H22" t="n">
+        <v>836</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1046</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2373</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2576</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>14</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14</v>
+      </c>
+      <c r="D23" t="n">
+        <v>14</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14</v>
+      </c>
+      <c r="H23" t="n">
+        <v>15</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16</v>
+      </c>
+      <c r="J23" t="n">
+        <v>16</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14</v>
+      </c>
+      <c r="L23" t="n">
+        <v>14</v>
+      </c>
+      <c r="M23" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/create_worksheets/excel_template.xlsx
+++ b/create_worksheets/excel_template.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,6 +36,15 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <name val="&lt;property object at 0x0000022C7B2DB4C0&gt;"/>
+    </font>
+    <font>
+      <name val="&lt;property object at 0x0000022C7B2DB510&gt;"/>
+    </font>
+    <font>
+      <name val="&lt;property object at 0x0000022C7B2DB560&gt;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,11 +73,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1421,7 +1433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C10:O94"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1429,6 +1441,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Project: </t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Eurobarometer</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wave: </t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>97.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fieldwork: </t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>19/04 - 16/05/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Sheet</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Question French</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Question English</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="C10" t="n">
         <v>5883</v>

--- a/create_worksheets/excel_template.xlsx
+++ b/create_worksheets/excel_template.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,15 +36,6 @@
     </font>
     <font>
       <b val="1"/>
-    </font>
-    <font>
-      <name val="&lt;property object at 0x0000022C7B2DB4C0&gt;"/>
-    </font>
-    <font>
-      <name val="&lt;property object at 0x0000022C7B2DB510&gt;"/>
-    </font>
-    <font>
-      <name val="&lt;property object at 0x0000022C7B2DB560&gt;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,14 +64,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1433,7 +1421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O94"/>
+  <dimension ref="C10:O94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,59 +1429,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Project: </t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Eurobarometer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wave: </t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>97.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fieldwork: </t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>19/04 - 16/05/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Sheet</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Question French</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Question English</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="C10" t="n">
         <v>5883</v>

--- a/create_worksheets/excel_template.xlsx
+++ b/create_worksheets/excel_template.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,6 +53,23 @@
       <b val="1"/>
       <color rgb="00000000"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Ariel"/>
+      <color rgb="000563C1"/>
+      <sz val="10"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Ariel"/>
+      <color rgb="00000000"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Ariel"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="8"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,7 +98,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -92,6 +109,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -678,20 +698,58 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C10:O29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Eurobarometer - 97.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>VOL AA weighted</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>&lt;&lt;Back to content</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
@@ -1538,6 +1596,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5114,20 +5178,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C10:O25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Eurobarometer - 97.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>VOL AA weighted</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>&lt;&lt;Back to content</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
@@ -5810,25 +5912,69 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C10:O21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Eurobarometer - 97.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>VOL AA weighted</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>&lt;&lt;Back to content</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
@@ -6347,25 +6493,69 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C10:O25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Eurobarometer - 97.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>VOL AA weighted</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>&lt;&lt;Back to content</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
@@ -7048,25 +7238,69 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C10:O21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Eurobarometer - 97.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>VOL AA weighted</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>&lt;&lt;Back to content</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
@@ -7585,25 +7819,69 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C10:O29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Eurobarometer - 97.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>VOL AA weighted</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>&lt;&lt;Back to content</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
@@ -8450,25 +8728,69 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C10:O19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Eurobarometer - 97.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>VOL AA weighted</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>&lt;&lt;Back to content</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
@@ -8905,25 +9227,69 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C10:O33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>Eurobarometer - 97.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>VOL AA weighted</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>&lt;&lt;Back to content</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
@@ -9934,6 +10300,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:B11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/create_worksheets/excel_template.xlsx
+++ b/create_worksheets/excel_template.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,6 +71,11 @@
       <color rgb="00000000"/>
       <sz val="8"/>
     </font>
+    <font>
+      <name val="Ariel"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,13 +110,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -477,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,171 +527,170 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Question_French</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Question_English</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>B. Pays de terrain</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>B. Fieldwork country</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="8" t="inlineStr">
         <is>
           <t>QB1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">QB1. À quelle fréquence faites-vous du sport ou de l'exercice physique ? Par « faire de l’exercice physique», nous entendons tous les types d’activités physiques que vous pouvez pratiquer dans un contexte sportif ou une infrastructure sportive, comme nager, vous entraîner dans un centre de fitness ou un club sportif, courir dans un parc, etc. </t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>QB1. How often do you exercise or play sport? By “exercise” we mean any form of physical activity which you do in a sport context or sport-related setting, such as swimming, training in a fitness centre or a sport club, running in the park.</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>QB1R</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">QB1R. À quelle fréquence faites-vous du sport ou de l'exercice physique ? Par « faire de l’exercice physique», nous entendons tous les types d’activités physiques que vous pouvez pratiquer dans un contexte sportif ou une infrastructure sportive, comme nager, vous entraîner dans un centre de fitness ou un club sportif, courir dans un parc, etc. </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>QB1R. How often do you exercise or play sport? By “exercise” we mean any form of physical activity which you do in a sport context or sport-related setting, such as swimming, training in a fitness centre or a sport club, running in the park.</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="8" t="inlineStr">
         <is>
           <t>QB2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>QB2. Et à quelle fréquence pratiquez-vous une  autre activité physique qui n'est pas un sport, comme faire du vélo pour vous déplacer d'un lieu à un autre, danser, jardiner, etc. ? Par “autre activité physique”, nous voulons parler d’une activité que vous pratiquez comme loisir ou pour une raison qui n’est pas liée au sport.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>QB2. And how often do you engage in other physical activity such as cycling from one place to another, dancing, gardening, etc.? By “other physical activity” we mean physical activity for recreational or non-sport-related reasons.</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="8" t="inlineStr">
         <is>
           <t>QB2R</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>QB2R. Et à quelle fréquence pratiquez-vous une  autre activité physique qui n'est pas un sport, comme faire du vélo pour vous déplacer d'un lieu à un autre, danser, jardiner, etc. ? Par “autre activité physique”, nous voulons parler d’une activité que vous pratiquez comme loisir ou pour une raison qui n’est pas liée au sport.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>QB2R. And how often do you engage in other physical activity such as cycling from one place to another, dancing, gardening, etc.? By “other physical activity” we mean physical activity for recreational or non-sport-related reasons.</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>QB3</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>QB3. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique intense, comme porter des charges lourdes, bêcher, faire de l'aérobic ou rouler vite à vélo ?</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>QB3. In the last 7 days, on how many days did you do vigorous physical activity like lifting heavy things, digging, aerobics or fast cycling?</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>QB3R</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>QB3R. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique intense, comme porter des charges lourdes, bêcher, faire de l'aérobic ou rouler vite à vélo ?</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>QB3R. In the last 7 days, on how many days did you do vigorous physical activity like lifting heavy things, digging, aerobics or fast cycling?</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="8" t="inlineStr">
         <is>
           <t>QB4</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>QB4. En général, les jours où vous faites un effort physique intense, combien de temps y consacrez-vous ?</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>QB4. In general, on days when you do a vigorous physical activity, how much time do you spend at it?</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>QB5</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
@@ -710,42 +714,48 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Eurobarometer - 97.3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>VOL AA weighted</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -5190,42 +5200,48 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Eurobarometer - 97.3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>VOL AA weighted</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -5935,42 +5951,48 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Eurobarometer - 97.3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>VOL AA weighted</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -6516,42 +6538,48 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Eurobarometer - 97.3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>VOL AA weighted</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -7261,42 +7289,48 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Eurobarometer - 97.3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>VOL AA weighted</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -7842,42 +7876,48 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Eurobarometer - 97.3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>VOL AA weighted</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -8751,42 +8791,48 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Eurobarometer - 97.3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>VOL AA weighted</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -9250,42 +9296,48 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Eurobarometer - 97.3</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>VOL AA weighted</t>
         </is>
       </c>
-      <c r="H2" s="6" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>Terrain/Fieldwork :  19/04 - 16/05/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>

--- a/create_worksheets/excel_template.xlsx
+++ b/create_worksheets/excel_template.xlsx
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -261,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,6 +930,7 @@
         </is>
       </c>
     </row>
+    <row r="4" ht="27" customHeight="1"/>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -1015,7 +1019,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -1876,6 +1880,7 @@
         </is>
       </c>
     </row>
+    <row r="4" ht="27" customHeight="1"/>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -1964,7 +1969,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -5966,6 +5971,7 @@
         </is>
       </c>
     </row>
+    <row r="4" ht="27" customHeight="1"/>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -6054,7 +6060,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -6751,6 +6757,7 @@
         </is>
       </c>
     </row>
+    <row r="4" ht="27" customHeight="1"/>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -6839,7 +6846,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -7372,6 +7379,7 @@
         </is>
       </c>
     </row>
+    <row r="4" ht="27" customHeight="1"/>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -7460,7 +7468,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -8157,6 +8165,7 @@
         </is>
       </c>
     </row>
+    <row r="4" ht="27" customHeight="1"/>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -8245,7 +8254,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -8778,6 +8787,7 @@
         </is>
       </c>
     </row>
+    <row r="4" ht="27" customHeight="1"/>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -8866,7 +8876,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -9727,6 +9737,7 @@
         </is>
       </c>
     </row>
+    <row r="4" ht="27" customHeight="1"/>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -9815,7 +9826,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -10266,6 +10277,7 @@
         </is>
       </c>
     </row>
+    <row r="4" ht="27" customHeight="1"/>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -10354,7 +10366,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>Total</t>
         </is>

--- a/create_worksheets/excel_template.xlsx
+++ b/create_worksheets/excel_template.xlsx
@@ -255,15 +255,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,17 +681,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="inlineStr">
+      <c r="A5" s="23" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="B5" s="22" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>Question_French</t>
         </is>
       </c>
-      <c r="C5" s="22" t="inlineStr">
+      <c r="C5" s="23" t="inlineStr">
         <is>
           <t>Question_English</t>
         </is>
@@ -703,12 +703,12 @@
           <t>B</t>
         </is>
       </c>
-      <c r="B6" s="23" t="inlineStr">
+      <c r="B6" s="24" t="inlineStr">
         <is>
           <t>B. Pays de terrain</t>
         </is>
       </c>
-      <c r="C6" s="23" t="inlineStr">
+      <c r="C6" s="24" t="inlineStr">
         <is>
           <t>B. Fieldwork country</t>
         </is>
@@ -720,12 +720,12 @@
           <t>QB1</t>
         </is>
       </c>
-      <c r="B7" s="23" t="inlineStr">
+      <c r="B7" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">QB1. À quelle fréquence faites-vous du sport ou de l'exercice physique ? Par « faire de l’exercice physique», nous entendons tous les types d’activités physiques que vous pouvez pratiquer dans un contexte sportif ou une infrastructure sportive, comme nager, vous entraîner dans un centre de fitness ou un club sportif, courir dans un parc, etc. </t>
         </is>
       </c>
-      <c r="C7" s="23" t="inlineStr">
+      <c r="C7" s="24" t="inlineStr">
         <is>
           <t>QB1. How often do you exercise or play sport? By “exercise” we mean any form of physical activity which you do in a sport context or sport-related setting, such as swimming, training in a fitness centre or a sport club, running in the park.</t>
         </is>
@@ -737,12 +737,12 @@
           <t>QB1R</t>
         </is>
       </c>
-      <c r="B8" s="23" t="inlineStr">
+      <c r="B8" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">QB1R. À quelle fréquence faites-vous du sport ou de l'exercice physique ? Par « faire de l’exercice physique», nous entendons tous les types d’activités physiques que vous pouvez pratiquer dans un contexte sportif ou une infrastructure sportive, comme nager, vous entraîner dans un centre de fitness ou un club sportif, courir dans un parc, etc. </t>
         </is>
       </c>
-      <c r="C8" s="23" t="inlineStr">
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>QB1R. How often do you exercise or play sport? By “exercise” we mean any form of physical activity which you do in a sport context or sport-related setting, such as swimming, training in a fitness centre or a sport club, running in the park.</t>
         </is>
@@ -754,12 +754,12 @@
           <t>QB2</t>
         </is>
       </c>
-      <c r="B9" s="23" t="inlineStr">
+      <c r="B9" s="24" t="inlineStr">
         <is>
           <t>QB2. Et à quelle fréquence pratiquez-vous une  autre activité physique qui n'est pas un sport, comme faire du vélo pour vous déplacer d'un lieu à un autre, danser, jardiner, etc. ? Par “autre activité physique”, nous voulons parler d’une activité que vous pratiquez comme loisir ou pour une raison qui n’est pas liée au sport.</t>
         </is>
       </c>
-      <c r="C9" s="23" t="inlineStr">
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>QB2. And how often do you engage in other physical activity such as cycling from one place to another, dancing, gardening, etc.? By “other physical activity” we mean physical activity for recreational or non-sport-related reasons.</t>
         </is>
@@ -771,12 +771,12 @@
           <t>QB2R</t>
         </is>
       </c>
-      <c r="B10" s="23" t="inlineStr">
+      <c r="B10" s="24" t="inlineStr">
         <is>
           <t>QB2R. Et à quelle fréquence pratiquez-vous une  autre activité physique qui n'est pas un sport, comme faire du vélo pour vous déplacer d'un lieu à un autre, danser, jardiner, etc. ? Par “autre activité physique”, nous voulons parler d’une activité que vous pratiquez comme loisir ou pour une raison qui n’est pas liée au sport.</t>
         </is>
       </c>
-      <c r="C10" s="23" t="inlineStr">
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>QB2R. And how often do you engage in other physical activity such as cycling from one place to another, dancing, gardening, etc.? By “other physical activity” we mean physical activity for recreational or non-sport-related reasons.</t>
         </is>
@@ -788,12 +788,12 @@
           <t>QB3</t>
         </is>
       </c>
-      <c r="B11" s="23" t="inlineStr">
+      <c r="B11" s="24" t="inlineStr">
         <is>
           <t>QB3. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique intense, comme porter des charges lourdes, bêcher, faire de l'aérobic ou rouler vite à vélo ?</t>
         </is>
       </c>
-      <c r="C11" s="23" t="inlineStr">
+      <c r="C11" s="24" t="inlineStr">
         <is>
           <t>QB3. In the last 7 days, on how many days did you do vigorous physical activity like lifting heavy things, digging, aerobics or fast cycling?</t>
         </is>
@@ -805,12 +805,12 @@
           <t>QB3R</t>
         </is>
       </c>
-      <c r="B12" s="23" t="inlineStr">
+      <c r="B12" s="24" t="inlineStr">
         <is>
           <t>QB3R. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique intense, comme porter des charges lourdes, bêcher, faire de l'aérobic ou rouler vite à vélo ?</t>
         </is>
       </c>
-      <c r="C12" s="23" t="inlineStr">
+      <c r="C12" s="24" t="inlineStr">
         <is>
           <t>QB3R. In the last 7 days, on how many days did you do vigorous physical activity like lifting heavy things, digging, aerobics or fast cycling?</t>
         </is>
@@ -822,12 +822,12 @@
           <t>QB4</t>
         </is>
       </c>
-      <c r="B13" s="23" t="inlineStr">
+      <c r="B13" s="24" t="inlineStr">
         <is>
           <t>QB4. En général, les jours où vous faites un effort physique intense, combien de temps y consacrez-vous ?</t>
         </is>
       </c>
-      <c r="C13" s="23" t="inlineStr">
+      <c r="C13" s="24" t="inlineStr">
         <is>
           <t>QB4. In general, on days when you do a vigorous physical activity, how much time do you spend at it?</t>
         </is>
@@ -839,12 +839,12 @@
           <t>QB5</t>
         </is>
       </c>
-      <c r="B14" s="23" t="inlineStr">
+      <c r="B14" s="24" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="C14" s="23" t="inlineStr">
+      <c r="C14" s="24" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
@@ -876,7 +876,11 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -931,6 +935,26 @@
       </c>
     </row>
     <row r="4" ht="27" customHeight="1"/>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Base: Ensemble</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Base: All Respondents</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+      <c r="L5" s="7" t="n"/>
+    </row>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -1019,7 +1043,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -1065,7 +1089,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="21" t="n"/>
+      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>525</v>
       </c>
@@ -1804,10 +1828,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1"/>
@@ -1826,7 +1854,11 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -1881,6 +1913,26 @@
       </c>
     </row>
     <row r="4" ht="27" customHeight="1"/>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Base: Ensemble</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Base: All Respondents</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+      <c r="L5" s="7" t="n"/>
+    </row>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -1969,7 +2021,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -2015,7 +2067,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="21" t="n"/>
+      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>0</v>
       </c>
@@ -5895,10 +5947,14 @@
       <c r="O95" s="14" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1"/>
@@ -5917,7 +5973,11 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -5972,6 +6032,26 @@
       </c>
     </row>
     <row r="4" ht="27" customHeight="1"/>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Base: Ensemble</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Base: All Respondents</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+      <c r="L5" s="7" t="n"/>
+    </row>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -6060,7 +6140,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -6106,7 +6186,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="21" t="n"/>
+      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>360</v>
       </c>
@@ -6681,10 +6761,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1"/>
@@ -6703,7 +6787,11 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -6758,6 +6846,26 @@
       </c>
     </row>
     <row r="4" ht="27" customHeight="1"/>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Base: Ensemble</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Base: All Respondents</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+      <c r="L5" s="7" t="n"/>
+    </row>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -6846,7 +6954,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -6892,7 +7000,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="21" t="n"/>
+      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>360</v>
       </c>
@@ -7303,10 +7411,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1"/>
@@ -7325,7 +7437,11 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -7380,6 +7496,26 @@
       </c>
     </row>
     <row r="4" ht="27" customHeight="1"/>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Base: Ensemble</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Base: All Respondents</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+      <c r="L5" s="7" t="n"/>
+    </row>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -7468,7 +7604,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -7514,7 +7650,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="21" t="n"/>
+      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>923</v>
       </c>
@@ -8089,10 +8225,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1"/>
@@ -8111,7 +8251,11 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -8166,6 +8310,26 @@
       </c>
     </row>
     <row r="4" ht="27" customHeight="1"/>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Base: Ensemble</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Base: All Respondents</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+      <c r="L5" s="7" t="n"/>
+    </row>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -8254,7 +8418,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -8300,7 +8464,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="21" t="n"/>
+      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>923</v>
       </c>
@@ -8711,10 +8875,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1"/>
@@ -8733,7 +8901,11 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -8788,6 +8960,26 @@
       </c>
     </row>
     <row r="4" ht="27" customHeight="1"/>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Base: Ensemble</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Base: All Respondents</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+      <c r="L5" s="7" t="n"/>
+    </row>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -8876,7 +9068,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -8922,7 +9114,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="21" t="n"/>
+      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>685</v>
       </c>
@@ -9661,10 +9853,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1"/>
@@ -9683,7 +9879,11 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -9738,6 +9938,26 @@
       </c>
     </row>
     <row r="4" ht="27" customHeight="1"/>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Base: Ensemble</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Base: All Respondents</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+      <c r="L5" s="7" t="n"/>
+    </row>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -9826,7 +10046,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -9872,7 +10092,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="21" t="n"/>
+      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>2047</v>
       </c>
@@ -10201,10 +10421,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1"/>
@@ -10223,7 +10447,11 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -10278,6 +10506,26 @@
       </c>
     </row>
     <row r="4" ht="27" customHeight="1"/>
+    <row r="5">
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Base: Ensemble</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="H5" s="7" t="inlineStr">
+        <is>
+          <t>Base: All Respondents</t>
+        </is>
+      </c>
+      <c r="I5" s="7" t="n"/>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
+      <c r="L5" s="7" t="n"/>
+    </row>
     <row r="8">
       <c r="C8" s="8" t="n"/>
       <c r="D8" s="9" t="n"/>
@@ -10366,7 +10614,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -10412,7 +10660,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="21" t="n"/>
+      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>750</v>
       </c>
@@ -11315,10 +11563,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:L4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1"/>

--- a/create_worksheets/excel_template.xlsx
+++ b/create_worksheets/excel_template.xlsx
@@ -96,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -184,44 +184,11 @@
         <color rgb="00000000"/>
       </right>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -246,25 +213,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -638,11 +586,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12.2" customWidth="1" min="1" max="1"/>
-    <col width="100" customWidth="1" min="2" max="2"/>
-    <col width="100" customWidth="1" min="3" max="3"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
@@ -681,17 +624,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="B5" s="23" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Question_French</t>
         </is>
       </c>
-      <c r="C5" s="23" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Question_English</t>
         </is>
@@ -703,12 +646,12 @@
           <t>B</t>
         </is>
       </c>
-      <c r="B6" s="24" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>B. Pays de terrain</t>
         </is>
       </c>
-      <c r="C6" s="24" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>B. Fieldwork country</t>
         </is>
@@ -720,12 +663,12 @@
           <t>QB1</t>
         </is>
       </c>
-      <c r="B7" s="24" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">QB1. À quelle fréquence faites-vous du sport ou de l'exercice physique ? Par « faire de l’exercice physique», nous entendons tous les types d’activités physiques que vous pouvez pratiquer dans un contexte sportif ou une infrastructure sportive, comme nager, vous entraîner dans un centre de fitness ou un club sportif, courir dans un parc, etc. </t>
         </is>
       </c>
-      <c r="C7" s="24" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>QB1. How often do you exercise or play sport? By “exercise” we mean any form of physical activity which you do in a sport context or sport-related setting, such as swimming, training in a fitness centre or a sport club, running in the park.</t>
         </is>
@@ -737,12 +680,12 @@
           <t>QB1R</t>
         </is>
       </c>
-      <c r="B8" s="24" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">QB1R. À quelle fréquence faites-vous du sport ou de l'exercice physique ? Par « faire de l’exercice physique», nous entendons tous les types d’activités physiques que vous pouvez pratiquer dans un contexte sportif ou une infrastructure sportive, comme nager, vous entraîner dans un centre de fitness ou un club sportif, courir dans un parc, etc. </t>
         </is>
       </c>
-      <c r="C8" s="24" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>QB1R. How often do you exercise or play sport? By “exercise” we mean any form of physical activity which you do in a sport context or sport-related setting, such as swimming, training in a fitness centre or a sport club, running in the park.</t>
         </is>
@@ -754,12 +697,12 @@
           <t>QB2</t>
         </is>
       </c>
-      <c r="B9" s="24" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>QB2. Et à quelle fréquence pratiquez-vous une  autre activité physique qui n'est pas un sport, comme faire du vélo pour vous déplacer d'un lieu à un autre, danser, jardiner, etc. ? Par “autre activité physique”, nous voulons parler d’une activité que vous pratiquez comme loisir ou pour une raison qui n’est pas liée au sport.</t>
         </is>
       </c>
-      <c r="C9" s="24" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>QB2. And how often do you engage in other physical activity such as cycling from one place to another, dancing, gardening, etc.? By “other physical activity” we mean physical activity for recreational or non-sport-related reasons.</t>
         </is>
@@ -771,12 +714,12 @@
           <t>QB2R</t>
         </is>
       </c>
-      <c r="B10" s="24" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>QB2R. Et à quelle fréquence pratiquez-vous une  autre activité physique qui n'est pas un sport, comme faire du vélo pour vous déplacer d'un lieu à un autre, danser, jardiner, etc. ? Par “autre activité physique”, nous voulons parler d’une activité que vous pratiquez comme loisir ou pour une raison qui n’est pas liée au sport.</t>
         </is>
       </c>
-      <c r="C10" s="24" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>QB2R. And how often do you engage in other physical activity such as cycling from one place to another, dancing, gardening, etc.? By “other physical activity” we mean physical activity for recreational or non-sport-related reasons.</t>
         </is>
@@ -788,12 +731,12 @@
           <t>QB3</t>
         </is>
       </c>
-      <c r="B11" s="24" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>QB3. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique intense, comme porter des charges lourdes, bêcher, faire de l'aérobic ou rouler vite à vélo ?</t>
         </is>
       </c>
-      <c r="C11" s="24" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>QB3. In the last 7 days, on how many days did you do vigorous physical activity like lifting heavy things, digging, aerobics or fast cycling?</t>
         </is>
@@ -805,12 +748,12 @@
           <t>QB3R</t>
         </is>
       </c>
-      <c r="B12" s="24" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>QB3R. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique intense, comme porter des charges lourdes, bêcher, faire de l'aérobic ou rouler vite à vélo ?</t>
         </is>
       </c>
-      <c r="C12" s="24" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>QB3R. In the last 7 days, on how many days did you do vigorous physical activity like lifting heavy things, digging, aerobics or fast cycling?</t>
         </is>
@@ -822,12 +765,12 @@
           <t>QB4</t>
         </is>
       </c>
-      <c r="B13" s="24" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>QB4. En général, les jours où vous faites un effort physique intense, combien de temps y consacrez-vous ?</t>
         </is>
       </c>
-      <c r="C13" s="24" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>QB4. In general, on days when you do a vigorous physical activity, how much time do you spend at it?</t>
         </is>
@@ -839,12 +782,12 @@
           <t>QB5</t>
         </is>
       </c>
-      <c r="B14" s="24" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="C14" s="24" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
@@ -879,29 +822,9 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="11.95" customWidth="1" min="3" max="3"/>
-    <col width="11.95" customWidth="1" min="4" max="4"/>
-    <col width="11.95" customWidth="1" min="5" max="5"/>
-    <col width="11.95" customWidth="1" min="6" max="6"/>
-    <col width="11.95" customWidth="1" min="7" max="7"/>
-    <col width="11.95" customWidth="1" min="8" max="8"/>
-    <col width="11.95" customWidth="1" min="9" max="9"/>
-    <col width="11.95" customWidth="1" min="10" max="10"/>
-    <col width="11.95" customWidth="1" min="11" max="11"/>
-    <col width="11.95" customWidth="1" min="12" max="12"/>
-    <col width="11.95" customWidth="1" min="13" max="13"/>
-    <col width="11.95" customWidth="1" min="14" max="14"/>
-    <col width="11.95" customWidth="1" min="15" max="15"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="I1" s="7" t="inlineStr">
@@ -923,18 +846,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1"/>
+    <row r="4"/>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
@@ -970,80 +893,80 @@
       <c r="N8" s="9" t="n"/>
       <c r="O8" s="10" t="n"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
+    <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>UE9 EU9</t>
         </is>
       </c>
-      <c r="E9" s="20" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>UE10 EU10</t>
         </is>
       </c>
-      <c r="F9" s="20" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>UE12 EU12</t>
         </is>
       </c>
-      <c r="G9" s="20" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>FI/AT/SE</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>UE15 EU15</t>
         </is>
       </c>
-      <c r="I9" s="20" t="inlineStr">
+      <c r="I9" s="11" t="inlineStr">
         <is>
           <t>EURO ZONE</t>
         </is>
       </c>
-      <c r="J9" s="20" t="inlineStr">
+      <c r="J9" s="11" t="inlineStr">
         <is>
           <t>NON EURO</t>
         </is>
       </c>
-      <c r="K9" s="20" t="inlineStr">
+      <c r="K9" s="11" t="inlineStr">
         <is>
           <t>NEM10 NMS10</t>
         </is>
       </c>
-      <c r="L9" s="20" t="inlineStr">
+      <c r="L9" s="11" t="inlineStr">
         <is>
           <t>NEM13 NMS13</t>
         </is>
       </c>
-      <c r="M9" s="20" t="inlineStr">
+      <c r="M9" s="11" t="inlineStr">
         <is>
           <t>UE25 EU25</t>
         </is>
       </c>
-      <c r="N9" s="20" t="inlineStr">
+      <c r="N9" s="11" t="inlineStr">
         <is>
           <t>UE27-HR EU27-HR</t>
         </is>
       </c>
-      <c r="O9" s="20" t="inlineStr">
+      <c r="O9" s="11" t="inlineStr">
         <is>
           <t>UE27 EU27</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -1089,7 +1012,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>525</v>
       </c>
@@ -1857,29 +1779,9 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="11.95" customWidth="1" min="3" max="3"/>
-    <col width="11.95" customWidth="1" min="4" max="4"/>
-    <col width="11.95" customWidth="1" min="5" max="5"/>
-    <col width="11.95" customWidth="1" min="6" max="6"/>
-    <col width="11.95" customWidth="1" min="7" max="7"/>
-    <col width="11.95" customWidth="1" min="8" max="8"/>
-    <col width="11.95" customWidth="1" min="9" max="9"/>
-    <col width="11.95" customWidth="1" min="10" max="10"/>
-    <col width="11.95" customWidth="1" min="11" max="11"/>
-    <col width="11.95" customWidth="1" min="12" max="12"/>
-    <col width="11.95" customWidth="1" min="13" max="13"/>
-    <col width="11.95" customWidth="1" min="14" max="14"/>
-    <col width="11.95" customWidth="1" min="15" max="15"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="I1" s="7" t="inlineStr">
@@ -1901,18 +1803,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1"/>
+    <row r="4"/>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
@@ -1948,80 +1850,80 @@
       <c r="N8" s="9" t="n"/>
       <c r="O8" s="10" t="n"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
+    <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>UE9 EU9</t>
         </is>
       </c>
-      <c r="E9" s="20" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>UE10 EU10</t>
         </is>
       </c>
-      <c r="F9" s="20" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>UE12 EU12</t>
         </is>
       </c>
-      <c r="G9" s="20" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>FI/AT/SE</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>UE15 EU15</t>
         </is>
       </c>
-      <c r="I9" s="20" t="inlineStr">
+      <c r="I9" s="11" t="inlineStr">
         <is>
           <t>EURO ZONE</t>
         </is>
       </c>
-      <c r="J9" s="20" t="inlineStr">
+      <c r="J9" s="11" t="inlineStr">
         <is>
           <t>NON EURO</t>
         </is>
       </c>
-      <c r="K9" s="20" t="inlineStr">
+      <c r="K9" s="11" t="inlineStr">
         <is>
           <t>NEM10 NMS10</t>
         </is>
       </c>
-      <c r="L9" s="20" t="inlineStr">
+      <c r="L9" s="11" t="inlineStr">
         <is>
           <t>NEM13 NMS13</t>
         </is>
       </c>
-      <c r="M9" s="20" t="inlineStr">
+      <c r="M9" s="11" t="inlineStr">
         <is>
           <t>UE25 EU25</t>
         </is>
       </c>
-      <c r="N9" s="20" t="inlineStr">
+      <c r="N9" s="11" t="inlineStr">
         <is>
           <t>UE27-HR EU27-HR</t>
         </is>
       </c>
-      <c r="O9" s="20" t="inlineStr">
+      <c r="O9" s="11" t="inlineStr">
         <is>
           <t>UE27 EU27</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -2067,7 +1969,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>0</v>
       </c>
@@ -5976,29 +5877,9 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="11.95" customWidth="1" min="3" max="3"/>
-    <col width="11.95" customWidth="1" min="4" max="4"/>
-    <col width="11.95" customWidth="1" min="5" max="5"/>
-    <col width="11.95" customWidth="1" min="6" max="6"/>
-    <col width="11.95" customWidth="1" min="7" max="7"/>
-    <col width="11.95" customWidth="1" min="8" max="8"/>
-    <col width="11.95" customWidth="1" min="9" max="9"/>
-    <col width="11.95" customWidth="1" min="10" max="10"/>
-    <col width="11.95" customWidth="1" min="11" max="11"/>
-    <col width="11.95" customWidth="1" min="12" max="12"/>
-    <col width="11.95" customWidth="1" min="13" max="13"/>
-    <col width="11.95" customWidth="1" min="14" max="14"/>
-    <col width="11.95" customWidth="1" min="15" max="15"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="I1" s="7" t="inlineStr">
@@ -6020,18 +5901,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1"/>
+    <row r="4"/>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
@@ -6067,80 +5948,80 @@
       <c r="N8" s="9" t="n"/>
       <c r="O8" s="10" t="n"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
+    <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>UE9 EU9</t>
         </is>
       </c>
-      <c r="E9" s="20" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>UE10 EU10</t>
         </is>
       </c>
-      <c r="F9" s="20" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>UE12 EU12</t>
         </is>
       </c>
-      <c r="G9" s="20" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>FI/AT/SE</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>UE15 EU15</t>
         </is>
       </c>
-      <c r="I9" s="20" t="inlineStr">
+      <c r="I9" s="11" t="inlineStr">
         <is>
           <t>EURO ZONE</t>
         </is>
       </c>
-      <c r="J9" s="20" t="inlineStr">
+      <c r="J9" s="11" t="inlineStr">
         <is>
           <t>NON EURO</t>
         </is>
       </c>
-      <c r="K9" s="20" t="inlineStr">
+      <c r="K9" s="11" t="inlineStr">
         <is>
           <t>NEM10 NMS10</t>
         </is>
       </c>
-      <c r="L9" s="20" t="inlineStr">
+      <c r="L9" s="11" t="inlineStr">
         <is>
           <t>NEM13 NMS13</t>
         </is>
       </c>
-      <c r="M9" s="20" t="inlineStr">
+      <c r="M9" s="11" t="inlineStr">
         <is>
           <t>UE25 EU25</t>
         </is>
       </c>
-      <c r="N9" s="20" t="inlineStr">
+      <c r="N9" s="11" t="inlineStr">
         <is>
           <t>UE27-HR EU27-HR</t>
         </is>
       </c>
-      <c r="O9" s="20" t="inlineStr">
+      <c r="O9" s="11" t="inlineStr">
         <is>
           <t>UE27 EU27</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -6186,7 +6067,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>360</v>
       </c>
@@ -6790,29 +6670,9 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="11.95" customWidth="1" min="3" max="3"/>
-    <col width="11.95" customWidth="1" min="4" max="4"/>
-    <col width="11.95" customWidth="1" min="5" max="5"/>
-    <col width="11.95" customWidth="1" min="6" max="6"/>
-    <col width="11.95" customWidth="1" min="7" max="7"/>
-    <col width="11.95" customWidth="1" min="8" max="8"/>
-    <col width="11.95" customWidth="1" min="9" max="9"/>
-    <col width="11.95" customWidth="1" min="10" max="10"/>
-    <col width="11.95" customWidth="1" min="11" max="11"/>
-    <col width="11.95" customWidth="1" min="12" max="12"/>
-    <col width="11.95" customWidth="1" min="13" max="13"/>
-    <col width="11.95" customWidth="1" min="14" max="14"/>
-    <col width="11.95" customWidth="1" min="15" max="15"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="I1" s="7" t="inlineStr">
@@ -6834,18 +6694,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1"/>
+    <row r="4"/>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
@@ -6881,80 +6741,80 @@
       <c r="N8" s="9" t="n"/>
       <c r="O8" s="10" t="n"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
+    <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>UE9 EU9</t>
         </is>
       </c>
-      <c r="E9" s="20" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>UE10 EU10</t>
         </is>
       </c>
-      <c r="F9" s="20" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>UE12 EU12</t>
         </is>
       </c>
-      <c r="G9" s="20" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>FI/AT/SE</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>UE15 EU15</t>
         </is>
       </c>
-      <c r="I9" s="20" t="inlineStr">
+      <c r="I9" s="11" t="inlineStr">
         <is>
           <t>EURO ZONE</t>
         </is>
       </c>
-      <c r="J9" s="20" t="inlineStr">
+      <c r="J9" s="11" t="inlineStr">
         <is>
           <t>NON EURO</t>
         </is>
       </c>
-      <c r="K9" s="20" t="inlineStr">
+      <c r="K9" s="11" t="inlineStr">
         <is>
           <t>NEM10 NMS10</t>
         </is>
       </c>
-      <c r="L9" s="20" t="inlineStr">
+      <c r="L9" s="11" t="inlineStr">
         <is>
           <t>NEM13 NMS13</t>
         </is>
       </c>
-      <c r="M9" s="20" t="inlineStr">
+      <c r="M9" s="11" t="inlineStr">
         <is>
           <t>UE25 EU25</t>
         </is>
       </c>
-      <c r="N9" s="20" t="inlineStr">
+      <c r="N9" s="11" t="inlineStr">
         <is>
           <t>UE27-HR EU27-HR</t>
         </is>
       </c>
-      <c r="O9" s="20" t="inlineStr">
+      <c r="O9" s="11" t="inlineStr">
         <is>
           <t>UE27 EU27</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -7000,7 +6860,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>360</v>
       </c>
@@ -7440,29 +7299,9 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="11.95" customWidth="1" min="3" max="3"/>
-    <col width="11.95" customWidth="1" min="4" max="4"/>
-    <col width="11.95" customWidth="1" min="5" max="5"/>
-    <col width="11.95" customWidth="1" min="6" max="6"/>
-    <col width="11.95" customWidth="1" min="7" max="7"/>
-    <col width="11.95" customWidth="1" min="8" max="8"/>
-    <col width="11.95" customWidth="1" min="9" max="9"/>
-    <col width="11.95" customWidth="1" min="10" max="10"/>
-    <col width="11.95" customWidth="1" min="11" max="11"/>
-    <col width="11.95" customWidth="1" min="12" max="12"/>
-    <col width="11.95" customWidth="1" min="13" max="13"/>
-    <col width="11.95" customWidth="1" min="14" max="14"/>
-    <col width="11.95" customWidth="1" min="15" max="15"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="I1" s="7" t="inlineStr">
@@ -7484,18 +7323,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1"/>
+    <row r="4"/>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
@@ -7531,80 +7370,80 @@
       <c r="N8" s="9" t="n"/>
       <c r="O8" s="10" t="n"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
+    <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>UE9 EU9</t>
         </is>
       </c>
-      <c r="E9" s="20" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>UE10 EU10</t>
         </is>
       </c>
-      <c r="F9" s="20" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>UE12 EU12</t>
         </is>
       </c>
-      <c r="G9" s="20" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>FI/AT/SE</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>UE15 EU15</t>
         </is>
       </c>
-      <c r="I9" s="20" t="inlineStr">
+      <c r="I9" s="11" t="inlineStr">
         <is>
           <t>EURO ZONE</t>
         </is>
       </c>
-      <c r="J9" s="20" t="inlineStr">
+      <c r="J9" s="11" t="inlineStr">
         <is>
           <t>NON EURO</t>
         </is>
       </c>
-      <c r="K9" s="20" t="inlineStr">
+      <c r="K9" s="11" t="inlineStr">
         <is>
           <t>NEM10 NMS10</t>
         </is>
       </c>
-      <c r="L9" s="20" t="inlineStr">
+      <c r="L9" s="11" t="inlineStr">
         <is>
           <t>NEM13 NMS13</t>
         </is>
       </c>
-      <c r="M9" s="20" t="inlineStr">
+      <c r="M9" s="11" t="inlineStr">
         <is>
           <t>UE25 EU25</t>
         </is>
       </c>
-      <c r="N9" s="20" t="inlineStr">
+      <c r="N9" s="11" t="inlineStr">
         <is>
           <t>UE27-HR EU27-HR</t>
         </is>
       </c>
-      <c r="O9" s="20" t="inlineStr">
+      <c r="O9" s="11" t="inlineStr">
         <is>
           <t>UE27 EU27</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -7650,7 +7489,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>923</v>
       </c>
@@ -8254,29 +8092,9 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="11.95" customWidth="1" min="3" max="3"/>
-    <col width="11.95" customWidth="1" min="4" max="4"/>
-    <col width="11.95" customWidth="1" min="5" max="5"/>
-    <col width="11.95" customWidth="1" min="6" max="6"/>
-    <col width="11.95" customWidth="1" min="7" max="7"/>
-    <col width="11.95" customWidth="1" min="8" max="8"/>
-    <col width="11.95" customWidth="1" min="9" max="9"/>
-    <col width="11.95" customWidth="1" min="10" max="10"/>
-    <col width="11.95" customWidth="1" min="11" max="11"/>
-    <col width="11.95" customWidth="1" min="12" max="12"/>
-    <col width="11.95" customWidth="1" min="13" max="13"/>
-    <col width="11.95" customWidth="1" min="14" max="14"/>
-    <col width="11.95" customWidth="1" min="15" max="15"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="I1" s="7" t="inlineStr">
@@ -8298,18 +8116,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1"/>
+    <row r="4"/>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
@@ -8345,80 +8163,80 @@
       <c r="N8" s="9" t="n"/>
       <c r="O8" s="10" t="n"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
+    <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>UE9 EU9</t>
         </is>
       </c>
-      <c r="E9" s="20" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>UE10 EU10</t>
         </is>
       </c>
-      <c r="F9" s="20" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>UE12 EU12</t>
         </is>
       </c>
-      <c r="G9" s="20" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>FI/AT/SE</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>UE15 EU15</t>
         </is>
       </c>
-      <c r="I9" s="20" t="inlineStr">
+      <c r="I9" s="11" t="inlineStr">
         <is>
           <t>EURO ZONE</t>
         </is>
       </c>
-      <c r="J9" s="20" t="inlineStr">
+      <c r="J9" s="11" t="inlineStr">
         <is>
           <t>NON EURO</t>
         </is>
       </c>
-      <c r="K9" s="20" t="inlineStr">
+      <c r="K9" s="11" t="inlineStr">
         <is>
           <t>NEM10 NMS10</t>
         </is>
       </c>
-      <c r="L9" s="20" t="inlineStr">
+      <c r="L9" s="11" t="inlineStr">
         <is>
           <t>NEM13 NMS13</t>
         </is>
       </c>
-      <c r="M9" s="20" t="inlineStr">
+      <c r="M9" s="11" t="inlineStr">
         <is>
           <t>UE25 EU25</t>
         </is>
       </c>
-      <c r="N9" s="20" t="inlineStr">
+      <c r="N9" s="11" t="inlineStr">
         <is>
           <t>UE27-HR EU27-HR</t>
         </is>
       </c>
-      <c r="O9" s="20" t="inlineStr">
+      <c r="O9" s="11" t="inlineStr">
         <is>
           <t>UE27 EU27</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -8464,7 +8282,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>923</v>
       </c>
@@ -8904,29 +8721,9 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="11.95" customWidth="1" min="3" max="3"/>
-    <col width="11.95" customWidth="1" min="4" max="4"/>
-    <col width="11.95" customWidth="1" min="5" max="5"/>
-    <col width="11.95" customWidth="1" min="6" max="6"/>
-    <col width="11.95" customWidth="1" min="7" max="7"/>
-    <col width="11.95" customWidth="1" min="8" max="8"/>
-    <col width="11.95" customWidth="1" min="9" max="9"/>
-    <col width="11.95" customWidth="1" min="10" max="10"/>
-    <col width="11.95" customWidth="1" min="11" max="11"/>
-    <col width="11.95" customWidth="1" min="12" max="12"/>
-    <col width="11.95" customWidth="1" min="13" max="13"/>
-    <col width="11.95" customWidth="1" min="14" max="14"/>
-    <col width="11.95" customWidth="1" min="15" max="15"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="I1" s="7" t="inlineStr">
@@ -8948,18 +8745,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1"/>
+    <row r="4"/>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
@@ -8995,80 +8792,80 @@
       <c r="N8" s="9" t="n"/>
       <c r="O8" s="10" t="n"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
+    <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>UE9 EU9</t>
         </is>
       </c>
-      <c r="E9" s="20" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>UE10 EU10</t>
         </is>
       </c>
-      <c r="F9" s="20" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>UE12 EU12</t>
         </is>
       </c>
-      <c r="G9" s="20" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>FI/AT/SE</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>UE15 EU15</t>
         </is>
       </c>
-      <c r="I9" s="20" t="inlineStr">
+      <c r="I9" s="11" t="inlineStr">
         <is>
           <t>EURO ZONE</t>
         </is>
       </c>
-      <c r="J9" s="20" t="inlineStr">
+      <c r="J9" s="11" t="inlineStr">
         <is>
           <t>NON EURO</t>
         </is>
       </c>
-      <c r="K9" s="20" t="inlineStr">
+      <c r="K9" s="11" t="inlineStr">
         <is>
           <t>NEM10 NMS10</t>
         </is>
       </c>
-      <c r="L9" s="20" t="inlineStr">
+      <c r="L9" s="11" t="inlineStr">
         <is>
           <t>NEM13 NMS13</t>
         </is>
       </c>
-      <c r="M9" s="20" t="inlineStr">
+      <c r="M9" s="11" t="inlineStr">
         <is>
           <t>UE25 EU25</t>
         </is>
       </c>
-      <c r="N9" s="20" t="inlineStr">
+      <c r="N9" s="11" t="inlineStr">
         <is>
           <t>UE27-HR EU27-HR</t>
         </is>
       </c>
-      <c r="O9" s="20" t="inlineStr">
+      <c r="O9" s="11" t="inlineStr">
         <is>
           <t>UE27 EU27</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -9114,7 +8911,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>685</v>
       </c>
@@ -9882,29 +9678,9 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="11.95" customWidth="1" min="3" max="3"/>
-    <col width="11.95" customWidth="1" min="4" max="4"/>
-    <col width="11.95" customWidth="1" min="5" max="5"/>
-    <col width="11.95" customWidth="1" min="6" max="6"/>
-    <col width="11.95" customWidth="1" min="7" max="7"/>
-    <col width="11.95" customWidth="1" min="8" max="8"/>
-    <col width="11.95" customWidth="1" min="9" max="9"/>
-    <col width="11.95" customWidth="1" min="10" max="10"/>
-    <col width="11.95" customWidth="1" min="11" max="11"/>
-    <col width="11.95" customWidth="1" min="12" max="12"/>
-    <col width="11.95" customWidth="1" min="13" max="13"/>
-    <col width="11.95" customWidth="1" min="14" max="14"/>
-    <col width="11.95" customWidth="1" min="15" max="15"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="I1" s="7" t="inlineStr">
@@ -9926,18 +9702,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1"/>
+    <row r="4"/>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
@@ -9973,80 +9749,80 @@
       <c r="N8" s="9" t="n"/>
       <c r="O8" s="10" t="n"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
+    <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>UE9 EU9</t>
         </is>
       </c>
-      <c r="E9" s="20" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>UE10 EU10</t>
         </is>
       </c>
-      <c r="F9" s="20" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>UE12 EU12</t>
         </is>
       </c>
-      <c r="G9" s="20" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>FI/AT/SE</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>UE15 EU15</t>
         </is>
       </c>
-      <c r="I9" s="20" t="inlineStr">
+      <c r="I9" s="11" t="inlineStr">
         <is>
           <t>EURO ZONE</t>
         </is>
       </c>
-      <c r="J9" s="20" t="inlineStr">
+      <c r="J9" s="11" t="inlineStr">
         <is>
           <t>NON EURO</t>
         </is>
       </c>
-      <c r="K9" s="20" t="inlineStr">
+      <c r="K9" s="11" t="inlineStr">
         <is>
           <t>NEM10 NMS10</t>
         </is>
       </c>
-      <c r="L9" s="20" t="inlineStr">
+      <c r="L9" s="11" t="inlineStr">
         <is>
           <t>NEM13 NMS13</t>
         </is>
       </c>
-      <c r="M9" s="20" t="inlineStr">
+      <c r="M9" s="11" t="inlineStr">
         <is>
           <t>UE25 EU25</t>
         </is>
       </c>
-      <c r="N9" s="20" t="inlineStr">
+      <c r="N9" s="11" t="inlineStr">
         <is>
           <t>UE27-HR EU27-HR</t>
         </is>
       </c>
-      <c r="O9" s="20" t="inlineStr">
+      <c r="O9" s="11" t="inlineStr">
         <is>
           <t>UE27 EU27</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -10092,7 +9868,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>2047</v>
       </c>
@@ -10450,29 +10225,9 @@
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="11.95" customWidth="1" min="3" max="3"/>
-    <col width="11.95" customWidth="1" min="4" max="4"/>
-    <col width="11.95" customWidth="1" min="5" max="5"/>
-    <col width="11.95" customWidth="1" min="6" max="6"/>
-    <col width="11.95" customWidth="1" min="7" max="7"/>
-    <col width="11.95" customWidth="1" min="8" max="8"/>
-    <col width="11.95" customWidth="1" min="9" max="9"/>
-    <col width="11.95" customWidth="1" min="10" max="10"/>
-    <col width="11.95" customWidth="1" min="11" max="11"/>
-    <col width="11.95" customWidth="1" min="12" max="12"/>
-    <col width="11.95" customWidth="1" min="13" max="13"/>
-    <col width="11.95" customWidth="1" min="14" max="14"/>
-    <col width="11.95" customWidth="1" min="15" max="15"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="I1" s="7" t="inlineStr">
@@ -10494,18 +10249,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="18" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>QB5. Au cours des 7 derniers jours, combien de jours avez-vous fait un effort physique modéré, comme porter des charges légères, faire du vélo à vitesse modérée ou jouer en double au tennis ? Merci de ne pas inclure la marche.</t>
         </is>
       </c>
-      <c r="H3" s="18" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>QB5. In the last 7 days, on how many days did you do moderate physical activity like carrying light loads, cycling at normal pace or doubles tennis? Please do not include walking.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1"/>
+    <row r="4"/>
     <row r="5">
       <c r="B5" s="7" t="inlineStr">
         <is>
@@ -10541,80 +10296,80 @@
       <c r="N8" s="9" t="n"/>
       <c r="O8" s="10" t="n"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1">
+    <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
           <t>&lt;&lt;Back to content</t>
         </is>
       </c>
-      <c r="C9" s="20" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>UE6 EU6</t>
         </is>
       </c>
-      <c r="D9" s="20" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>UE9 EU9</t>
         </is>
       </c>
-      <c r="E9" s="20" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>UE10 EU10</t>
         </is>
       </c>
-      <c r="F9" s="20" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>UE12 EU12</t>
         </is>
       </c>
-      <c r="G9" s="20" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>FI/AT/SE</t>
         </is>
       </c>
-      <c r="H9" s="20" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>UE15 EU15</t>
         </is>
       </c>
-      <c r="I9" s="20" t="inlineStr">
+      <c r="I9" s="11" t="inlineStr">
         <is>
           <t>EURO ZONE</t>
         </is>
       </c>
-      <c r="J9" s="20" t="inlineStr">
+      <c r="J9" s="11" t="inlineStr">
         <is>
           <t>NON EURO</t>
         </is>
       </c>
-      <c r="K9" s="20" t="inlineStr">
+      <c r="K9" s="11" t="inlineStr">
         <is>
           <t>NEM10 NMS10</t>
         </is>
       </c>
-      <c r="L9" s="20" t="inlineStr">
+      <c r="L9" s="11" t="inlineStr">
         <is>
           <t>NEM13 NMS13</t>
         </is>
       </c>
-      <c r="M9" s="20" t="inlineStr">
+      <c r="M9" s="11" t="inlineStr">
         <is>
           <t>UE25 EU25</t>
         </is>
       </c>
-      <c r="N9" s="20" t="inlineStr">
+      <c r="N9" s="11" t="inlineStr">
         <is>
           <t>UE27-HR EU27-HR</t>
         </is>
       </c>
-      <c r="O9" s="20" t="inlineStr">
+      <c r="O9" s="11" t="inlineStr">
         <is>
           <t>UE27 EU27</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="12" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -10660,7 +10415,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="22" t="n"/>
       <c r="C11" s="14" t="n">
         <v>750</v>
       </c>
